--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Has2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Has2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>48.25514733333333</v>
+        <v>0.1403053333333333</v>
       </c>
       <c r="H2">
-        <v>144.765442</v>
+        <v>0.420916</v>
       </c>
       <c r="I2">
-        <v>0.9340796096783166</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="J2">
-        <v>0.9340796096783167</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q2">
-        <v>504.5102515732016</v>
+        <v>6.132627608761778</v>
       </c>
       <c r="R2">
-        <v>4540.592264158814</v>
+        <v>55.193648478856</v>
       </c>
       <c r="S2">
-        <v>0.00766156267803956</v>
+        <v>6.65202978350818E-05</v>
       </c>
       <c r="T2">
-        <v>0.007661562678039561</v>
+        <v>6.652029783508179E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>48.25514733333333</v>
+        <v>0.1403053333333333</v>
       </c>
       <c r="H3">
-        <v>144.765442</v>
+        <v>0.420916</v>
       </c>
       <c r="I3">
-        <v>0.9340796096783166</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="J3">
-        <v>0.9340796096783167</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q3">
-        <v>8079.249987941193</v>
+        <v>23.49100407488312</v>
       </c>
       <c r="R3">
-        <v>72713.24989147072</v>
+        <v>211.419036673948</v>
       </c>
       <c r="S3">
-        <v>0.1226926112623908</v>
+        <v>0.0002548057190483559</v>
       </c>
       <c r="T3">
-        <v>0.1226926112623908</v>
+        <v>0.0002548057190483559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>48.25514733333333</v>
+        <v>0.1403053333333333</v>
       </c>
       <c r="H4">
-        <v>144.765442</v>
+        <v>0.420916</v>
       </c>
       <c r="I4">
-        <v>0.9340796096783166</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="J4">
-        <v>0.9340796096783167</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N4">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q4">
-        <v>10977.83745958656</v>
+        <v>64.03353493438134</v>
       </c>
       <c r="R4">
-        <v>98800.53713627902</v>
+        <v>576.301814409432</v>
       </c>
       <c r="S4">
-        <v>0.1667109627677199</v>
+        <v>0.0006945684765177175</v>
       </c>
       <c r="T4">
-        <v>0.1667109627677199</v>
+        <v>0.0006945684765177175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>48.25514733333333</v>
+        <v>0.1403053333333333</v>
       </c>
       <c r="H5">
-        <v>144.765442</v>
+        <v>0.420916</v>
       </c>
       <c r="I5">
-        <v>0.9340796096783166</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="J5">
-        <v>0.9340796096783167</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N5">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q5">
-        <v>2678.656402128556</v>
+        <v>15.94548473574089</v>
       </c>
       <c r="R5">
-        <v>24107.907619157</v>
+        <v>143.509362621668</v>
       </c>
       <c r="S5">
-        <v>0.04067844776958342</v>
+        <v>0.0001729598569185578</v>
       </c>
       <c r="T5">
-        <v>0.04067844776958342</v>
+        <v>0.0001729598569185578</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>48.25514733333333</v>
+        <v>0.1403053333333333</v>
       </c>
       <c r="H6">
-        <v>144.765442</v>
+        <v>0.420916</v>
       </c>
       <c r="I6">
-        <v>0.9340796096783166</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="J6">
-        <v>0.9340796096783167</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N6">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q6">
-        <v>32127.56965798838</v>
+        <v>105.2537744142333</v>
       </c>
       <c r="R6">
-        <v>289148.1269218954</v>
+        <v>947.2839697280999</v>
       </c>
       <c r="S6">
-        <v>0.4878937303260038</v>
+        <v>0.001141682304710324</v>
       </c>
       <c r="T6">
-        <v>0.4878937303260039</v>
+        <v>0.001141682304710324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>48.25514733333333</v>
+        <v>0.1403053333333333</v>
       </c>
       <c r="H7">
-        <v>144.765442</v>
+        <v>0.420916</v>
       </c>
       <c r="I7">
-        <v>0.9340796096783166</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="J7">
-        <v>0.9340796096783167</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N7">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q7">
-        <v>7140.873444155975</v>
+        <v>31.86661690861733</v>
       </c>
       <c r="R7">
-        <v>64267.86099740378</v>
+        <v>286.799552177556</v>
       </c>
       <c r="S7">
-        <v>0.1084422948745791</v>
+        <v>0.0003456555628339671</v>
       </c>
       <c r="T7">
-        <v>0.1084422948745792</v>
+        <v>0.0003456555628339671</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.405489333333333</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H8">
-        <v>10.216468</v>
+        <v>144.765442</v>
       </c>
       <c r="I8">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="J8">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N8">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O8">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P8">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q8">
-        <v>35.60458055223955</v>
+        <v>2109.191730425553</v>
       </c>
       <c r="R8">
-        <v>320.441224970156</v>
+        <v>18982.72557382997</v>
       </c>
       <c r="S8">
-        <v>0.0005406961001796649</v>
+        <v>0.02287829476206003</v>
       </c>
       <c r="T8">
-        <v>0.0005406961001796649</v>
+        <v>0.02287829476206003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.405489333333333</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H9">
-        <v>10.216468</v>
+        <v>144.765442</v>
       </c>
       <c r="I9">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="J9">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q9">
-        <v>570.1733633763338</v>
+        <v>8079.249987941193</v>
       </c>
       <c r="R9">
-        <v>5131.560270387004</v>
+        <v>72713.24989147072</v>
       </c>
       <c r="S9">
-        <v>0.008658731804228907</v>
+        <v>0.08763521116365991</v>
       </c>
       <c r="T9">
-        <v>0.008658731804228907</v>
+        <v>0.08763521116365991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.405489333333333</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H10">
-        <v>10.216468</v>
+        <v>144.765442</v>
       </c>
       <c r="I10">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="J10">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N10">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q10">
-        <v>774.7341048084345</v>
+        <v>22023.02356669301</v>
       </c>
       <c r="R10">
-        <v>6972.60694327591</v>
+        <v>198207.2121002371</v>
       </c>
       <c r="S10">
-        <v>0.01176521960514306</v>
+        <v>0.2388826095999059</v>
       </c>
       <c r="T10">
-        <v>0.01176521960514306</v>
+        <v>0.2388826095999059</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,14 +1086,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.405489333333333</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H11">
-        <v>10.216468</v>
+        <v>144.765442</v>
       </c>
       <c r="I11">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="J11">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N11">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q11">
-        <v>189.0396425919213</v>
+        <v>5484.123068911096</v>
       </c>
       <c r="R11">
-        <v>1701.356783327292</v>
+        <v>49357.10762019987</v>
       </c>
       <c r="S11">
-        <v>0.002870782240471592</v>
+        <v>0.05948600227853486</v>
       </c>
       <c r="T11">
-        <v>0.002870782240471592</v>
+        <v>0.05948600227853486</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.405489333333333</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H12">
-        <v>10.216468</v>
+        <v>144.765442</v>
       </c>
       <c r="I12">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="J12">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N12">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q12">
-        <v>2267.324872524543</v>
+        <v>36199.88115264038</v>
       </c>
       <c r="R12">
-        <v>20405.92385272089</v>
+        <v>325798.9303737634</v>
       </c>
       <c r="S12">
-        <v>0.03443191009133414</v>
+        <v>0.3926582583341303</v>
       </c>
       <c r="T12">
-        <v>0.03443191009133414</v>
+        <v>0.3926582583341303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.405489333333333</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H13">
-        <v>10.216468</v>
+        <v>144.765442</v>
       </c>
       <c r="I13">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="J13">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N13">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q13">
-        <v>503.9497274098697</v>
+        <v>10959.87057232479</v>
       </c>
       <c r="R13">
-        <v>4535.547546688827</v>
+        <v>98638.83515092313</v>
       </c>
       <c r="S13">
-        <v>0.007653050480325972</v>
+        <v>0.1188811552267389</v>
       </c>
       <c r="T13">
-        <v>0.007653050480325972</v>
+        <v>0.1188811552267389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.031773</v>
+      </c>
+      <c r="H14">
+        <v>12.095319</v>
+      </c>
+      <c r="I14">
+        <v>0.07690227641710612</v>
+      </c>
+      <c r="J14">
+        <v>0.07690227641710611</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>43.70915533333334</v>
+      </c>
+      <c r="N14">
+        <v>131.127466</v>
+      </c>
+      <c r="O14">
+        <v>0.0248563228721197</v>
+      </c>
+      <c r="P14">
+        <v>0.02485632287211969</v>
+      </c>
+      <c r="Q14">
+        <v>176.2253923257394</v>
+      </c>
+      <c r="R14">
+        <v>1586.028530931654</v>
+      </c>
+      <c r="S14">
+        <v>0.001911507812224586</v>
+      </c>
+      <c r="T14">
+        <v>0.001911507812224585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.031773</v>
+      </c>
+      <c r="H15">
+        <v>12.095319</v>
+      </c>
+      <c r="I15">
+        <v>0.07690227641710612</v>
+      </c>
+      <c r="J15">
+        <v>0.07690227641710611</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>167.4277343333333</v>
+      </c>
+      <c r="N15">
+        <v>502.283203</v>
+      </c>
+      <c r="O15">
+        <v>0.09521203945945574</v>
+      </c>
+      <c r="P15">
+        <v>0.09521203945945574</v>
+      </c>
+      <c r="Q15">
+        <v>675.0306187363065</v>
+      </c>
+      <c r="R15">
+        <v>6075.275568626757</v>
+      </c>
+      <c r="S15">
+        <v>0.00732202257674748</v>
+      </c>
+      <c r="T15">
+        <v>0.007322022576747479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.031773</v>
+      </c>
+      <c r="H16">
+        <v>12.095319</v>
+      </c>
+      <c r="I16">
+        <v>0.07690227641710612</v>
+      </c>
+      <c r="J16">
+        <v>0.07690227641710611</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>456.387034</v>
+      </c>
+      <c r="N16">
+        <v>1369.161102</v>
+      </c>
+      <c r="O16">
+        <v>0.259536094560534</v>
+      </c>
+      <c r="P16">
+        <v>0.259536094560534</v>
+      </c>
+      <c r="Q16">
+        <v>1840.048921231282</v>
+      </c>
+      <c r="R16">
+        <v>16560.44029108154</v>
+      </c>
+      <c r="S16">
+        <v>0.01995891648411038</v>
+      </c>
+      <c r="T16">
+        <v>0.01995891648411037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.031773</v>
+      </c>
+      <c r="H17">
+        <v>12.095319</v>
+      </c>
+      <c r="I17">
+        <v>0.07690227641710612</v>
+      </c>
+      <c r="J17">
+        <v>0.07690227641710611</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>113.6484576666667</v>
+      </c>
+      <c r="N17">
+        <v>340.945373</v>
+      </c>
+      <c r="O17">
+        <v>0.06462908596924523</v>
+      </c>
+      <c r="P17">
+        <v>0.06462908596924523</v>
+      </c>
+      <c r="Q17">
+        <v>458.2047831121097</v>
+      </c>
+      <c r="R17">
+        <v>4123.843048008987</v>
+      </c>
+      <c r="S17">
+        <v>0.004970123833791812</v>
+      </c>
+      <c r="T17">
+        <v>0.004970123833791811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.031773</v>
+      </c>
+      <c r="H18">
+        <v>12.095319</v>
+      </c>
+      <c r="I18">
+        <v>0.07690227641710612</v>
+      </c>
+      <c r="J18">
+        <v>0.07690227641710611</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>750.176575</v>
+      </c>
+      <c r="N18">
+        <v>2250.529725</v>
+      </c>
+      <c r="O18">
+        <v>0.4266069892474147</v>
+      </c>
+      <c r="P18">
+        <v>0.4266069892474147</v>
+      </c>
+      <c r="Q18">
+        <v>3024.541660317475</v>
+      </c>
+      <c r="R18">
+        <v>27220.87494285727</v>
+      </c>
+      <c r="S18">
+        <v>0.03280704860857411</v>
+      </c>
+      <c r="T18">
+        <v>0.0328070486085741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.031773</v>
+      </c>
+      <c r="H19">
+        <v>12.095319</v>
+      </c>
+      <c r="I19">
+        <v>0.07690227641710612</v>
+      </c>
+      <c r="J19">
+        <v>0.07690227641710611</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>227.123347</v>
+      </c>
+      <c r="N19">
+        <v>681.370041</v>
+      </c>
+      <c r="O19">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="P19">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="Q19">
+        <v>915.7097781042311</v>
+      </c>
+      <c r="R19">
+        <v>8241.38800293808</v>
+      </c>
+      <c r="S19">
+        <v>0.00993265710165776</v>
+      </c>
+      <c r="T19">
+        <v>0.009932657101657758</v>
       </c>
     </row>
   </sheetData>
